--- a/data/evaluation/evaluation_South_Spring_Onions.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Onions.xlsx
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5444.68425925926</v>
+        <v>5444.684259259258</v>
       </c>
       <c r="C3" t="n">
-        <v>51423538.14570216</v>
+        <v>51423538.14570215</v>
       </c>
       <c r="D3" t="n">
-        <v>7171.020718538063</v>
+        <v>7171.020718538062</v>
       </c>
       <c r="E3" t="n">
         <v>-0.1884654838607769</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6139.018981156806</v>
+        <v>5500.565595777986</v>
       </c>
       <c r="C4" t="n">
-        <v>64194949.25531582</v>
+        <v>53462475.5294539</v>
       </c>
       <c r="D4" t="n">
-        <v>8012.175063945859</v>
+        <v>7311.803849219008</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4836295630216829</v>
+        <v>-0.2355880038530125</v>
       </c>
     </row>
     <row r="5">
